--- a/GuiasdeR/cartera.xlsx
+++ b/GuiasdeR/cartera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresyanesguerra/Documents/Trabajo en R/Con Mac/timeseries/GuiasdeR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosandresyanesguerra/Documents/ProjectQuarto/tseries/GuiasdeR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D09DC04-E176-FE43-A062-A18DCED12282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EC50F-FF60-064F-B04B-CAD64C0718C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16640" xr2:uid="{AD6DBCFD-DAF8-6C43-AB7E-5027F6EF7620}"/>
+    <workbookView xWindow="1500" yWindow="1260" windowWidth="27640" windowHeight="16640" xr2:uid="{AD6DBCFD-DAF8-6C43-AB7E-5027F6EF7620}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966FFDCF-F77D-F04C-829D-3525B892939F}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,6 +1114,78 @@
         <v>638791.72385000007</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B90">
+        <v>640048.12199999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B91">
+        <v>644309.125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B92">
+        <v>644511</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B93">
+        <v>646039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B94">
+        <v>648621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B95">
+        <v>648701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B96">
+        <v>650135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B97">
+        <v>649298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B98">
+        <v>646722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
